--- a/dbSynGenes/SynGenes.xlsx
+++ b/dbSynGenes/SynGenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11cce91981b02ad1/Artigos/Luan/SynGenes/dbSynGenes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="838" documentId="13_ncr:1_{4F037EF8-148B-45B2-A1BE-6A2402E0EC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D21C33-11EB-4CED-A168-C3DB2BAD1016}"/>
+  <xr:revisionPtr revIDLastSave="841" documentId="13_ncr:1_{4F037EF8-148B-45B2-A1BE-6A2402E0EC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC17071-09F7-4B76-8E7C-72E282B4B086}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{B65CD80F-5C08-4084-A0E0-5A27EA7B5D76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B65CD80F-5C08-4084-A0E0-5A27EA7B5D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Mitochondrial" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="3079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="3080">
   <si>
     <t>Full Name</t>
   </si>
@@ -9273,6 +9273,9 @@
   </si>
   <si>
     <t>Ribulose-1,5-Bisphosphate Carboxylase-Oxygenase</t>
+  </si>
+  <si>
+    <t>cytochrome c oxidase subunit I</t>
   </si>
 </sst>
 </file>
@@ -10120,10 +10123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C16860-536C-447A-982E-7EA13707B951}">
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11775,15 +11778,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>3029</v>
+        <v>3079</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>6</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>6</v>
@@ -11799,7 +11802,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>6</v>
@@ -11807,7 +11810,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>6</v>
@@ -11815,7 +11818,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>6</v>
@@ -11823,7 +11826,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>6</v>
@@ -11831,7 +11834,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>6</v>
@@ -11839,7 +11842,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>32</v>
+        <v>3036</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>6</v>
@@ -11847,7 +11850,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>6</v>
@@ -11855,7 +11858,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>6</v>
@@ -11863,7 +11866,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>6</v>
@@ -11871,7 +11874,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>6</v>
@@ -11879,7 +11882,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>6</v>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>6</v>
@@ -11895,7 +11898,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>6</v>
@@ -11903,7 +11906,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>6</v>
@@ -11911,7 +11914,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>6</v>
@@ -11919,7 +11922,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>6</v>
@@ -11927,7 +11930,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>6</v>
@@ -11935,7 +11938,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>6</v>
@@ -11943,7 +11946,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>6</v>
@@ -11951,7 +11954,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>6</v>
@@ -11959,7 +11962,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>6</v>
@@ -11967,7 +11970,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>6</v>
@@ -11975,7 +11978,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>6</v>
@@ -11983,7 +11986,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>6</v>
@@ -11991,7 +11994,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>6</v>
@@ -11999,7 +12002,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>6</v>
@@ -12007,7 +12010,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>6</v>
@@ -12015,7 +12018,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>6</v>
@@ -12023,7 +12026,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>6</v>
@@ -12031,7 +12034,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>6</v>
@@ -12039,7 +12042,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>6</v>
@@ -12047,7 +12050,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>6</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>6</v>
@@ -12063,7 +12066,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>6</v>
@@ -12071,7 +12074,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>6</v>
@@ -12079,7 +12082,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>6</v>
@@ -12087,7 +12090,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>6</v>
@@ -12095,7 +12098,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>6</v>
@@ -12103,7 +12106,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>6</v>
@@ -12111,7 +12114,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>6</v>
@@ -12119,7 +12122,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>6</v>
@@ -12127,7 +12130,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>6</v>
@@ -12135,7 +12138,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>6</v>
@@ -12143,15 +12146,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>3037</v>
+        <v>471</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>9</v>
@@ -12159,7 +12162,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>233</v>
+        <v>3038</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>9</v>
@@ -12167,7 +12170,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>3039</v>
+        <v>233</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>9</v>
@@ -12175,7 +12178,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>9</v>
@@ -12183,7 +12186,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>9</v>
@@ -12191,7 +12194,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>33</v>
+        <v>3041</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>9</v>
@@ -12199,7 +12202,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
@@ -12207,7 +12210,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>9</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>9</v>
@@ -12223,7 +12226,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>9</v>
@@ -12231,7 +12234,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>9</v>
@@ -12239,23 +12242,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
-        <v>102</v>
+      <c r="A265" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="2" t="s">
-        <v>113</v>
+      <c r="A266" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>9</v>
@@ -12263,7 +12266,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>9</v>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>9</v>
@@ -12279,7 +12282,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>9</v>
@@ -12287,7 +12290,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>9</v>
@@ -12295,7 +12298,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>9</v>
@@ -12303,7 +12306,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>9</v>
@@ -12311,7 +12314,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>9</v>
@@ -12319,7 +12322,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>9</v>
@@ -12327,7 +12330,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>9</v>
@@ -12335,7 +12338,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>9</v>
@@ -12343,7 +12346,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>9</v>
@@ -12351,7 +12354,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>9</v>
@@ -12359,7 +12362,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>9</v>
@@ -12367,7 +12370,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>9</v>
@@ -12375,7 +12378,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>9</v>
@@ -12383,7 +12386,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>9</v>
@@ -12391,7 +12394,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>9</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>9</v>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>9</v>
@@ -12415,7 +12418,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>9</v>
@@ -12423,7 +12426,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>9</v>
@@ -12431,7 +12434,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>9</v>
@@ -12439,7 +12442,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
@@ -12447,7 +12450,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>9</v>
@@ -12455,7 +12458,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>9</v>
@@ -12463,7 +12466,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>9</v>
@@ -12471,7 +12474,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>9</v>
@@ -12479,7 +12482,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>9</v>
@@ -12487,7 +12490,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>9</v>
@@ -12495,7 +12498,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
@@ -12503,7 +12506,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>9</v>
@@ -12511,15 +12514,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>81</v>
+        <v>461</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>81</v>
@@ -12527,7 +12530,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>81</v>
@@ -12535,7 +12538,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>81</v>
@@ -12543,7 +12546,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>81</v>
@@ -12551,7 +12554,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>81</v>
@@ -12559,7 +12562,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>81</v>
@@ -12567,7 +12570,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>81</v>
@@ -12575,7 +12578,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>81</v>
@@ -12583,7 +12586,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>81</v>
@@ -12591,7 +12594,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>81</v>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>81</v>
@@ -12607,7 +12610,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>81</v>
@@ -12615,7 +12618,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>81</v>
@@ -12623,7 +12626,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>81</v>
@@ -12631,7 +12634,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>81</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>81</v>
@@ -12647,7 +12650,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>81</v>
@@ -12655,7 +12658,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>81</v>
@@ -12663,7 +12666,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>81</v>
@@ -12671,7 +12674,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>81</v>
@@ -12679,7 +12682,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>81</v>
@@ -12687,7 +12690,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>81</v>
@@ -12695,7 +12698,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>81</v>
@@ -12703,7 +12706,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>81</v>
@@ -12711,7 +12714,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>81</v>
@@ -12719,7 +12722,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>81</v>
@@ -12727,7 +12730,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>81</v>
@@ -12735,7 +12738,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>81</v>
@@ -12743,7 +12746,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>81</v>
@@ -12751,7 +12754,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>81</v>
@@ -12759,7 +12762,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>81</v>
@@ -12767,7 +12770,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>81</v>
@@ -12775,15 +12778,15 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>18</v>
+        <v>502</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>18</v>
@@ -12791,7 +12794,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>18</v>
@@ -12799,7 +12802,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>18</v>
@@ -12807,7 +12810,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>18</v>
@@ -12815,7 +12818,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>18</v>
@@ -12823,7 +12826,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>18</v>
@@ -12831,7 +12834,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>18</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>18</v>
@@ -12847,7 +12850,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>18</v>
@@ -12855,7 +12858,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>18</v>
@@ -12863,7 +12866,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>18</v>
@@ -12871,7 +12874,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>18</v>
@@ -12879,7 +12882,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>18</v>
@@ -12887,7 +12890,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>18</v>
@@ -12895,7 +12898,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>18</v>
@@ -12903,7 +12906,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>18</v>
@@ -12911,7 +12914,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>18</v>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>18</v>
@@ -12927,7 +12930,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>18</v>
@@ -12935,7 +12938,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>3050</v>
+        <v>17</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>18</v>
@@ -12943,15 +12946,15 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
-        <v>14</v>
+        <v>3050</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>229</v>
@@ -12959,7 +12962,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>229</v>
@@ -12967,7 +12970,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>229</v>
@@ -12975,7 +12978,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>229</v>
@@ -12983,7 +12986,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>229</v>
@@ -12991,7 +12994,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>229</v>
@@ -12999,7 +13002,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>229</v>
@@ -13007,7 +13010,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>229</v>
@@ -13015,7 +13018,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>229</v>
@@ -13023,7 +13026,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>229</v>
@@ -13031,7 +13034,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>229</v>
@@ -13039,7 +13042,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>229</v>
@@ -13047,7 +13050,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>229</v>
@@ -13055,7 +13058,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>229</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>229</v>
@@ -13071,7 +13074,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>229</v>
@@ -13079,7 +13082,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>229</v>
@@ -13087,7 +13090,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>229</v>
@@ -13095,7 +13098,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>229</v>
@@ -13103,7 +13106,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>229</v>
@@ -13111,7 +13114,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>229</v>
@@ -13119,7 +13122,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>229</v>
@@ -13127,7 +13130,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>229</v>
@@ -13135,7 +13138,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>229</v>
@@ -13143,7 +13146,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>229</v>
@@ -13151,7 +13154,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
-        <v>16</v>
+        <v>462</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>229</v>
@@ -13159,7 +13162,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
-        <v>470</v>
+        <v>16</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>229</v>
@@ -13167,7 +13170,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
-        <v>3051</v>
+        <v>470</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>229</v>
@@ -13175,7 +13178,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>229</v>
@@ -13183,15 +13186,15 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
-        <v>15</v>
+        <v>3052</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>230</v>
@@ -13199,7 +13202,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>230</v>
@@ -13207,7 +13210,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>230</v>
@@ -13215,7 +13218,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>230</v>
@@ -13223,7 +13226,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>230</v>
@@ -13231,7 +13234,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>230</v>
@@ -13239,7 +13242,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>230</v>
@@ -13247,7 +13250,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>230</v>
@@ -13255,7 +13258,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>230</v>
@@ -13263,7 +13266,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>230</v>
@@ -13271,7 +13274,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>230</v>
@@ -13279,7 +13282,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>230</v>
@@ -13287,7 +13290,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>230</v>
@@ -13295,7 +13298,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>230</v>
@@ -13303,7 +13306,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>230</v>
@@ -13311,7 +13314,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>230</v>
@@ -13319,7 +13322,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>230</v>
@@ -13327,7 +13330,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>230</v>
@@ -13335,7 +13338,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>230</v>
@@ -13343,7 +13346,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>230</v>
@@ -13351,7 +13354,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>230</v>
@@ -13359,7 +13362,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>230</v>
@@ -13367,7 +13370,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>230</v>
@@ -13375,7 +13378,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>230</v>
@@ -13383,15 +13386,15 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>234</v>
@@ -13399,7 +13402,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>234</v>
@@ -13407,7 +13410,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>234</v>
@@ -13415,7 +13418,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>234</v>
@@ -13423,7 +13426,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>234</v>
@@ -13431,7 +13434,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>234</v>
@@ -13439,7 +13442,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>234</v>
@@ -13447,7 +13450,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>234</v>
@@ -13455,7 +13458,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>234</v>
@@ -13463,7 +13466,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>234</v>
@@ -13471,7 +13474,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>234</v>
@@ -13479,7 +13482,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>234</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>234</v>
@@ -13495,7 +13498,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>234</v>
@@ -13503,7 +13506,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>234</v>
@@ -13511,7 +13514,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>234</v>
@@ -13519,7 +13522,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>234</v>
@@ -13527,7 +13530,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>234</v>
@@ -13535,7 +13538,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>234</v>
@@ -13543,7 +13546,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>234</v>
@@ -13551,7 +13554,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>234</v>
@@ -13559,7 +13562,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>234</v>
@@ -13567,7 +13570,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>234</v>
@@ -13575,7 +13578,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>234</v>
@@ -13583,15 +13586,15 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>235</v>
@@ -13599,7 +13602,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>235</v>
@@ -13607,7 +13610,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>235</v>
@@ -13615,7 +13618,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>235</v>
@@ -13623,7 +13626,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>235</v>
@@ -13631,7 +13634,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>235</v>
@@ -13639,7 +13642,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>235</v>
@@ -13647,7 +13650,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>235</v>
@@ -13655,7 +13658,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>235</v>
@@ -13663,7 +13666,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>235</v>
@@ -13671,7 +13674,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>235</v>
@@ -13679,7 +13682,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>235</v>
@@ -13687,7 +13690,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>235</v>
@@ -13695,7 +13698,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>235</v>
@@ -13703,7 +13706,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>235</v>
@@ -13711,7 +13714,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>235</v>
@@ -13719,7 +13722,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>235</v>
@@ -13727,7 +13730,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>235</v>
@@ -13735,7 +13738,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>235</v>
@@ -13743,7 +13746,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>235</v>
@@ -13751,7 +13754,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>235</v>
@@ -13759,7 +13762,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>235</v>
@@ -13767,7 +13770,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>235</v>
@@ -13775,7 +13778,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>235</v>
@@ -13783,7 +13786,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>235</v>
@@ -13791,7 +13794,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>235</v>
@@ -13799,7 +13802,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>235</v>
@@ -13807,15 +13810,15 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>147</v>
@@ -13823,7 +13826,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>147</v>
@@ -13831,7 +13834,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>147</v>
@@ -13839,7 +13842,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>147</v>
@@ -13847,7 +13850,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>147</v>
@@ -13855,7 +13858,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>147</v>
@@ -13863,7 +13866,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>147</v>
@@ -13871,7 +13874,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>147</v>
@@ -13879,7 +13882,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>147</v>
@@ -13887,7 +13890,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>147</v>
@@ -13895,7 +13898,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>147</v>
@@ -13903,7 +13906,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>147</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>147</v>
@@ -13919,7 +13922,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>147</v>
@@ -13927,7 +13930,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>147</v>
@@ -13935,7 +13938,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>147</v>
@@ -13943,7 +13946,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>147</v>
@@ -13951,7 +13954,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>147</v>
@@ -13959,7 +13962,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>147</v>
@@ -13967,7 +13970,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>147</v>
@@ -13975,7 +13978,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>147</v>
@@ -13983,7 +13986,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>147</v>
@@ -13991,15 +13994,15 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
-        <v>10</v>
+        <v>456</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>148</v>
@@ -14007,7 +14010,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>148</v>
@@ -14015,7 +14018,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>148</v>
@@ -14023,7 +14026,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>148</v>
@@ -14031,7 +14034,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>148</v>
@@ -14039,7 +14042,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>148</v>
@@ -14047,7 +14050,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>148</v>
@@ -14055,7 +14058,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>148</v>
@@ -14063,7 +14066,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>148</v>
@@ -14071,7 +14074,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>148</v>
@@ -14079,7 +14082,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>148</v>
@@ -14087,7 +14090,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>148</v>
@@ -14095,7 +14098,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>148</v>
@@ -14103,7 +14106,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>148</v>
@@ -14111,7 +14114,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>148</v>
@@ -14119,7 +14122,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>148</v>
@@ -14127,7 +14130,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>148</v>
@@ -14135,7 +14138,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>148</v>
@@ -14143,7 +14146,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>148</v>
@@ -14151,7 +14154,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>148</v>
@@ -14159,7 +14162,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>148</v>
@@ -14167,7 +14170,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>148</v>
@@ -14175,7 +14178,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>148</v>
@@ -14183,7 +14186,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>148</v>
@@ -14191,7 +14194,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>148</v>
@@ -14199,7 +14202,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>148</v>
@@ -14207,7 +14210,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>148</v>
@@ -14215,7 +14218,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>148</v>
@@ -14223,7 +14226,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>148</v>
@@ -14231,7 +14234,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>148</v>
@@ -14239,7 +14242,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>148</v>
@@ -14247,15 +14250,15 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>149</v>
@@ -14263,7 +14266,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>149</v>
@@ -14271,7 +14274,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>149</v>
@@ -14279,7 +14282,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>149</v>
@@ -14287,7 +14290,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>149</v>
@@ -14295,7 +14298,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>149</v>
@@ -14303,7 +14306,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>149</v>
@@ -14311,7 +14314,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>149</v>
@@ -14319,7 +14322,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>149</v>
@@ -14327,7 +14330,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>149</v>
@@ -14335,7 +14338,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>149</v>
@@ -14343,7 +14346,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>149</v>
@@ -14351,7 +14354,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>149</v>
@@ -14359,7 +14362,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>149</v>
@@ -14367,7 +14370,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>149</v>
@@ -14375,7 +14378,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>149</v>
@@ -14383,7 +14386,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>149</v>
@@ -14391,7 +14394,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>149</v>
@@ -14399,7 +14402,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>149</v>
@@ -14407,7 +14410,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>149</v>
@@ -14415,7 +14418,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>149</v>
@@ -14423,7 +14426,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>149</v>
@@ -14431,7 +14434,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>149</v>
@@ -14439,7 +14442,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>149</v>
@@ -14447,7 +14450,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>149</v>
@@ -14455,7 +14458,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>149</v>
@@ -14463,26 +14466,34 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
-        <v>84</v>
+        <v>458</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B544" s="2" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4546">
-    <sortCondition ref="B1:B4546"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4547">
+    <sortCondition ref="B1:B4547"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A379 A382:A1048576">
+  <conditionalFormatting sqref="A383:A1048576 A1:A380">
     <cfRule type="duplicateValues" dxfId="45" priority="1372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
@@ -14498,66 +14509,66 @@
   <conditionalFormatting sqref="A130:A178">
     <cfRule type="duplicateValues" dxfId="40" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A205">
+  <conditionalFormatting sqref="A130:A206">
     <cfRule type="duplicateValues" dxfId="39" priority="1367"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179:A205">
+  <conditionalFormatting sqref="A179:A206">
     <cfRule type="duplicateValues" dxfId="38" priority="1368"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206:A213">
+  <conditionalFormatting sqref="A207:A214">
     <cfRule type="duplicateValues" dxfId="37" priority="19"/>
     <cfRule type="duplicateValues" dxfId="36" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206:A251">
+  <conditionalFormatting sqref="A207:A252">
     <cfRule type="duplicateValues" dxfId="35" priority="1362"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A214:A251">
+  <conditionalFormatting sqref="A215:A252">
     <cfRule type="duplicateValues" dxfId="34" priority="1363"/>
     <cfRule type="duplicateValues" dxfId="33" priority="1364"/>
     <cfRule type="duplicateValues" dxfId="32" priority="1365"/>
     <cfRule type="duplicateValues" dxfId="31" priority="1366"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A252:A257">
+  <conditionalFormatting sqref="A253:A258">
     <cfRule type="duplicateValues" dxfId="30" priority="11"/>
     <cfRule type="duplicateValues" dxfId="29" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A252:A297">
+  <conditionalFormatting sqref="A253:A298">
     <cfRule type="duplicateValues" dxfId="28" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A258:A297">
+  <conditionalFormatting sqref="A259:A298">
     <cfRule type="duplicateValues" dxfId="27" priority="540"/>
     <cfRule type="duplicateValues" dxfId="26" priority="541"/>
     <cfRule type="duplicateValues" dxfId="25" priority="542"/>
     <cfRule type="duplicateValues" dxfId="24" priority="543"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A380:A381">
+  <conditionalFormatting sqref="A381:A382">
     <cfRule type="duplicateValues" dxfId="23" priority="712"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A1:A349">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A1:A350">
     <cfRule type="duplicateValues" dxfId="22" priority="1376"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A298:A349 A1:A127">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A299:A350 A1:A127">
     <cfRule type="duplicateValues" dxfId="21" priority="1399"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A298:A349 A1:A129">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A299:A350 A1:A129">
     <cfRule type="duplicateValues" dxfId="20" priority="1381"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A298:A349 A1:A205">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A299:A350 A1:A206">
     <cfRule type="duplicateValues" dxfId="19" priority="1387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A298:A349 A1:A251">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A299:A350 A1:A252">
     <cfRule type="duplicateValues" dxfId="18" priority="1393"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A1048576 A352:A379 A298:A349 A91:A127 A51:A85 A27:A44 A1:A23">
+  <conditionalFormatting sqref="A383:A1048576 A353:A380 A299:A350 A91:A127 A51:A85 A27:A44 A1:A23">
     <cfRule type="duplicateValues" dxfId="17" priority="1405"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4586:A1048576 A1:A23 A27:A44 A51:A85 A91:A116 A119:A127 A382:A555 A352:A379 A298:A349">
+  <conditionalFormatting sqref="A4587:A1048576 A1:A23 A27:A44 A51:A85 A91:A116 A119:A127 A383:A556 A353:A380 A299:A350">
     <cfRule type="duplicateValues" dxfId="16" priority="1285"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4586:A1048576 A1:A23 A27:A44 A51:A85 A91:A127 A382:A555 A352:A379 A298:A349">
+  <conditionalFormatting sqref="A4587:A1048576 A1:A23 A27:A44 A51:A85 A91:A127 A383:A556 A353:A380 A299:A350">
     <cfRule type="duplicateValues" dxfId="15" priority="1270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4586:A1048576 A98:A116 A1:A23 A27:A44 A51:A85 A91:A96 A119:A127 A382:A555 A352:A379 A298:A349">
+  <conditionalFormatting sqref="A4587:A1048576 A98:A116 A1:A23 A27:A44 A51:A85 A91:A96 A119:A127 A383:A556 A353:A380 A299:A350">
     <cfRule type="duplicateValues" dxfId="14" priority="1301"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14569,7 +14580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A4F55-5216-41A4-9C3C-407797BEAA7D}">
   <dimension ref="A1:B2485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A115" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
